--- a/scripts/shstrophies/data/Mr Torren_s initial data input/Spring Awards/Golf.xlsx
+++ b/scripts/shstrophies/data/Mr Torren_s initial data input/Spring Awards/Golf.xlsx
@@ -50,31 +50,34 @@
     <t>2008/2009</t>
   </si>
   <si>
+    <t>1999/2000</t>
+  </si>
+  <si>
     <t>2009/2010</t>
   </si>
   <si>
-    <t>1999/2000</t>
+    <t>2000/2001</t>
   </si>
   <si>
     <t>2010/2011</t>
   </si>
   <si>
-    <t>2000/2001</t>
-  </si>
-  <si>
     <t>2001/2002</t>
   </si>
   <si>
     <t>2002/2003</t>
   </si>
   <si>
+    <t>2003/2004</t>
+  </si>
+  <si>
     <t>2011/2012</t>
   </si>
   <si>
     <t>Ian Burns</t>
   </si>
   <si>
-    <t>2003/2004</t>
+    <t>2004/2005</t>
   </si>
   <si>
     <t>Michael Lee</t>
@@ -83,15 +86,15 @@
     <t>Brian Leung</t>
   </si>
   <si>
-    <t>2004/2005</t>
-  </si>
-  <si>
     <t>2005/2006</t>
   </si>
   <si>
     <t>2006/2007</t>
   </si>
   <si>
+    <t>Kenneth Leung</t>
+  </si>
+  <si>
     <t>Andrew Cho</t>
   </si>
   <si>
@@ -101,16 +104,16 @@
     <t>Kent Paisley</t>
   </si>
   <si>
+    <t>2012/2013</t>
+  </si>
+  <si>
     <t>Robbie Parden</t>
   </si>
   <si>
     <t>Oliver Chen</t>
   </si>
   <si>
-    <t>Kenneth Leung</t>
-  </si>
-  <si>
-    <t>2012/2013</t>
+    <t>2013/2014</t>
   </si>
   <si>
     <t>Arman Vaziri</t>
@@ -122,7 +125,7 @@
     <t>Zachary Galvin</t>
   </si>
   <si>
-    <t>2013/2014</t>
+    <t>2014/2015</t>
   </si>
   <si>
     <t>Christian Galvin</t>
@@ -137,18 +140,24 @@
     <t>Lukas Pettersson</t>
   </si>
   <si>
-    <t>2014/2015</t>
+    <t>2015/2016</t>
   </si>
   <si>
     <t>Trevor Leung</t>
   </si>
   <si>
+    <t>2016/2017</t>
+  </si>
+  <si>
+    <t>2017/2018</t>
+  </si>
+  <si>
+    <t>2018/2019</t>
+  </si>
+  <si>
     <t>Noah Jung</t>
   </si>
   <si>
-    <t>2015/2016</t>
-  </si>
-  <si>
     <t>Lucas Peng</t>
   </si>
   <si>
@@ -156,15 +165,6 @@
   </si>
   <si>
     <t>Miles Peng</t>
-  </si>
-  <si>
-    <t>2016/2017</t>
-  </si>
-  <si>
-    <t>2017/2018</t>
-  </si>
-  <si>
-    <t>2018/2019</t>
   </si>
   <si>
     <t>2017-2018</t>
@@ -251,11 +251,11 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -315,7 +315,7 @@
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -327,8 +327,8 @@
       <c r="F1" s="6"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>13</v>
+      <c r="A2" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -337,8 +337,8 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>15</v>
+      <c r="A3" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -347,7 +347,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1"/>
@@ -357,7 +357,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="1"/>
@@ -367,8 +367,8 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>20</v>
+      <c r="A6" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -377,8 +377,8 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>23</v>
+      <c r="A7" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -387,7 +387,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="1"/>
@@ -397,7 +397,7 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="1"/>
@@ -407,7 +407,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="1"/>
@@ -417,7 +417,7 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1"/>
@@ -427,33 +427,33 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>12</v>
+      <c r="A12" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>14</v>
+      <c r="A13" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -462,110 +462,110 @@
       <c r="A14" s="8"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
-        <v>18</v>
+      <c r="A15" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="B17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="C18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="E18" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="8"/>
       <c r="E19" s="9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
-        <v>44</v>
+      <c r="A20" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8"/>
       <c r="B21" s="9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -573,7 +573,7 @@
       <c r="E22" s="11"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -590,7 +590,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -670,7 +670,7 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1"/>
@@ -700,7 +700,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1"/>
@@ -730,8 +730,8 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
+      <c r="A4" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -760,8 +760,8 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
+      <c r="A5" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -790,18 +790,18 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>18</v>
+      <c r="A6" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -831,7 +831,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -856,8 +856,8 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>32</v>
+      <c r="A8" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -886,8 +886,8 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>36</v>
+      <c r="A9" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B9" s="7">
         <v>0.0</v>
@@ -926,8 +926,8 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>41</v>
+      <c r="A10" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -956,23 +956,23 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>49</v>
+      <c r="A13" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
-        <v>50</v>
+      <c r="A14" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/shstrophies/data/Mr Torren_s initial data input/Spring Awards/Golf.xlsx
+++ b/scripts/shstrophies/data/Mr Torren_s initial data input/Spring Awards/Golf.xlsx
@@ -17,10 +17,19 @@
     <t>Year</t>
   </si>
   <si>
+    <t>Most Valuable</t>
+  </si>
+  <si>
     <t>Outstanding (Rotary)</t>
   </si>
   <si>
-    <t>Most Valuable</t>
+    <t>Most Improved</t>
+  </si>
+  <si>
+    <t>Varsity Captain</t>
+  </si>
+  <si>
+    <t>Coaches Award</t>
   </si>
   <si>
     <t>Most Improved (Nigel Hunter)</t>
@@ -38,46 +47,52 @@
     <t>2007/2008</t>
   </si>
   <si>
-    <t>Most Improved</t>
-  </si>
-  <si>
-    <t>Varsity Captain</t>
-  </si>
-  <si>
-    <t>Coaches Award</t>
+    <t>1999/2000</t>
+  </si>
+  <si>
+    <t>2000/2001</t>
   </si>
   <si>
     <t>2008/2009</t>
   </si>
   <si>
-    <t>1999/2000</t>
+    <t>2001/2002</t>
+  </si>
+  <si>
+    <t>2002/2003</t>
+  </si>
+  <si>
+    <t>2003/2004</t>
+  </si>
+  <si>
+    <t>2004/2005</t>
+  </si>
+  <si>
+    <t>2005/2006</t>
+  </si>
+  <si>
+    <t>2006/2007</t>
   </si>
   <si>
     <t>2009/2010</t>
   </si>
   <si>
-    <t>2000/2001</t>
+    <t>Andrew Cho</t>
   </si>
   <si>
     <t>2010/2011</t>
   </si>
   <si>
-    <t>2001/2002</t>
-  </si>
-  <si>
-    <t>2002/2003</t>
-  </si>
-  <si>
-    <t>2003/2004</t>
-  </si>
-  <si>
     <t>2011/2012</t>
   </si>
   <si>
     <t>Ian Burns</t>
   </si>
   <si>
-    <t>2004/2005</t>
+    <t>Spencer Goldman</t>
+  </si>
+  <si>
+    <t>Kent Paisley</t>
   </si>
   <si>
     <t>Michael Lee</t>
@@ -86,33 +101,18 @@
     <t>Brian Leung</t>
   </si>
   <si>
-    <t>2005/2006</t>
-  </si>
-  <si>
-    <t>2006/2007</t>
+    <t>Robbie Parden</t>
+  </si>
+  <si>
+    <t>Oliver Chen</t>
   </si>
   <si>
     <t>Kenneth Leung</t>
   </si>
   <si>
-    <t>Andrew Cho</t>
-  </si>
-  <si>
-    <t>Spencer Goldman</t>
-  </si>
-  <si>
-    <t>Kent Paisley</t>
-  </si>
-  <si>
     <t>2012/2013</t>
   </si>
   <si>
-    <t>Robbie Parden</t>
-  </si>
-  <si>
-    <t>Oliver Chen</t>
-  </si>
-  <si>
     <t>2013/2014</t>
   </si>
   <si>
@@ -143,16 +143,16 @@
     <t>2015/2016</t>
   </si>
   <si>
+    <t>2016/2017</t>
+  </si>
+  <si>
+    <t>2017/2018</t>
+  </si>
+  <si>
+    <t>2018/2019</t>
+  </si>
+  <si>
     <t>Trevor Leung</t>
-  </si>
-  <si>
-    <t>2016/2017</t>
-  </si>
-  <si>
-    <t>2017/2018</t>
-  </si>
-  <si>
-    <t>2018/2019</t>
   </si>
   <si>
     <t>Noah Jung</t>
@@ -246,19 +246,19 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -312,23 +312,23 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="6"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>12</v>
+      <c r="A2" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -337,8 +337,8 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
+      <c r="A3" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -347,8 +347,8 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>16</v>
+      <c r="A4" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -357,8 +357,8 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
+      <c r="A5" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -367,8 +367,8 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>18</v>
+      <c r="A6" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -377,8 +377,8 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>21</v>
+      <c r="A7" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -387,8 +387,8 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>24</v>
+      <c r="A8" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -397,8 +397,8 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>25</v>
+      <c r="A9" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -407,8 +407,8 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>7</v>
+      <c r="A10" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -417,8 +417,8 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>11</v>
+      <c r="A11" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -427,33 +427,33 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>13</v>
+      <c r="A12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>15</v>
+      <c r="A13" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -462,18 +462,18 @@
       <c r="A14" s="8"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="s">
-        <v>19</v>
+      <c r="A15" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>34</v>
@@ -487,11 +487,11 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="s">
-        <v>30</v>
+      <c r="A16" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>34</v>
@@ -505,7 +505,7 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -523,14 +523,14 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>40</v>
@@ -547,7 +547,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -565,7 +565,7 @@
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -573,7 +573,7 @@
       <c r="E22" s="11"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -590,7 +590,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -633,20 +633,20 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -670,8 +670,8 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
+      <c r="A2" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -700,8 +700,8 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
+      <c r="A3" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -730,8 +730,8 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
+      <c r="A4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -760,8 +760,8 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
+      <c r="A5" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -790,18 +790,18 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>19</v>
+      <c r="A6" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -831,7 +831,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -856,8 +856,8 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>30</v>
+      <c r="A8" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -886,7 +886,7 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="7">
@@ -926,7 +926,7 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="1"/>
@@ -956,23 +956,23 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="4" t="s">
+    <row r="14">
+      <c r="A14" s="6" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
